--- a/ExcelToCs/配置/掉落配置表.xlsx
+++ b/ExcelToCs/配置/掉落配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0EF8D7-F450-4E65-A5DC-A14A61C2DABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4142E2E0-144F-45C9-9FFD-43D418EBF3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1995" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#MoneyParam" sheetId="1" r:id="rId1"/>
@@ -265,10 +265,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -553,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,7 +574,7 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -592,7 +591,7 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -609,7 +608,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -624,7 +623,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -692,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82A6F01-071D-4788-9488-09F53558F3DC}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -709,7 +708,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -722,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -735,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -835,15 +834,15 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -855,15 +854,15 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -875,15 +874,15 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -895,15 +894,15 @@
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -915,432 +914,432 @@
       <c r="C16">
         <v>10</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
     </row>
     <row r="22" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
     </row>
     <row r="23" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
     <row r="26" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
     </row>
     <row r="27" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
     </row>
     <row r="28" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
     </row>
     <row r="29" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
         <v>1</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
     </row>
     <row r="32" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2">
         <v>2</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
     </row>
     <row r="33" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3">
+      <c r="L34" s="2"/>
+      <c r="M34" s="2">
         <v>4</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
     </row>
     <row r="35" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2">
         <v>5</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
     </row>
     <row r="36" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
         <v>6</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
     </row>
     <row r="37" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2">
         <v>7</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
     </row>
     <row r="38" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2">
         <v>8</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
     </row>
     <row r="39" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3">
+      <c r="L39" s="2"/>
+      <c r="M39" s="2">
         <v>9</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
     </row>
     <row r="40" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2">
         <v>10</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
     </row>
     <row r="41" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
+      <c r="J41" s="2"/>
+      <c r="K41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3">
+      <c r="L41" s="2"/>
+      <c r="M41" s="2">
         <v>11</v>
       </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
     </row>
     <row r="42" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
+      <c r="J42" s="2"/>
+      <c r="K42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2">
         <v>12</v>
       </c>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
     </row>
     <row r="43" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
     </row>
     <row r="44" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
     </row>
     <row r="45" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
     </row>
     <row r="46" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
     </row>
     <row r="47" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
     </row>
     <row r="48" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ExcelToCs/配置/掉落配置表.xlsx
+++ b/ExcelToCs/配置/掉落配置表.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4142E2E0-144F-45C9-9FFD-43D418EBF3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F03E6BE-4562-45E3-962E-EEAC66FD1DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1995" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#MoneyParam" sheetId="1" r:id="rId1"/>
     <sheet name="#GrowParam" sheetId="2" r:id="rId2"/>
+    <sheet name="#SeedWeight" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="126">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -183,6 +184,292 @@
   </si>
   <si>
     <t>僵尸类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落植物种子类型，0不掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None,</t>
+  </si>
+  <si>
+    <t>/// &lt;summary&gt;</t>
+  </si>
+  <si>
+    <t>/// 豌豆射手</t>
+  </si>
+  <si>
+    <t>/// &lt;/summary&gt;</t>
+  </si>
+  <si>
+    <t>Peashooter,</t>
+  </si>
+  <si>
+    <t>/// 双发豌豆射手</t>
+  </si>
+  <si>
+    <t>Repeater,</t>
+  </si>
+  <si>
+    <t>/// 仙人掌</t>
+  </si>
+  <si>
+    <t>Cactus,</t>
+  </si>
+  <si>
+    <t>/// 三叶草</t>
+  </si>
+  <si>
+    <t>Blover,</t>
+  </si>
+  <si>
+    <t>/// 香蒲</t>
+  </si>
+  <si>
+    <t>Cattail,</t>
+  </si>
+  <si>
+    <t>/// 樱桃炸弹</t>
+  </si>
+  <si>
+    <t>CherryBomb,</t>
+  </si>
+  <si>
+    <t>/// 大嘴花</t>
+  </si>
+  <si>
+    <t>Chomper,</t>
+  </si>
+  <si>
+    <t>/// 咖啡豆</t>
+  </si>
+  <si>
+    <t>CoffeeBean,</t>
+  </si>
+  <si>
+    <t>/// 玉米投手</t>
+  </si>
+  <si>
+    <t>Cornpult,</t>
+  </si>
+  <si>
+    <t>/// 大喷菇</t>
+  </si>
+  <si>
+    <t>FumeShroom,</t>
+  </si>
+  <si>
+    <t>/// 加特林豌豆</t>
+  </si>
+  <si>
+    <t>GatlingPea,</t>
+  </si>
+  <si>
+    <t>/// 曾哥</t>
+  </si>
+  <si>
+    <t>GloomShroom,</t>
+  </si>
+  <si>
+    <t>/// 金磁力菇</t>
+  </si>
+  <si>
+    <t>GoldMagent,</t>
+  </si>
+  <si>
+    <t>/// 荷叶</t>
+  </si>
+  <si>
+    <t>Lilypad,</t>
+  </si>
+  <si>
+    <t>/// 大蒜</t>
+  </si>
+  <si>
+    <t>Gralic,</t>
+  </si>
+  <si>
+    <t>/// 墓碑吞噬者</t>
+  </si>
+  <si>
+    <t>Gravebuster,</t>
+  </si>
+  <si>
+    <t>/// 魅惑菇</t>
+  </si>
+  <si>
+    <t>HypnoShroom,</t>
+  </si>
+  <si>
+    <t>/// 磁力菇</t>
+  </si>
+  <si>
+    <t>MagentShroom,</t>
+  </si>
+  <si>
+    <t>/// 金盏花</t>
+  </si>
+  <si>
+    <t>Marigold,</t>
+  </si>
+  <si>
+    <t>/// 路灯</t>
+  </si>
+  <si>
+    <t>Plantern,</t>
+  </si>
+  <si>
+    <t>/// 小喷菇</t>
+  </si>
+  <si>
+    <t>PuffShroom,</t>
+  </si>
+  <si>
+    <t>/// 南瓜</t>
+  </si>
+  <si>
+    <t>PumpkinHead,</t>
+  </si>
+  <si>
+    <t>/// 胆小菇</t>
+  </si>
+  <si>
+    <t>ScaredyShroom,</t>
+  </si>
+  <si>
+    <t>/// 寒冰豌豆</t>
+  </si>
+  <si>
+    <t>SnowPea,</t>
+  </si>
+  <si>
+    <t>/// 地刺王</t>
+  </si>
+  <si>
+    <t>Spikerock,</t>
+  </si>
+  <si>
+    <t>/// 地刺</t>
+  </si>
+  <si>
+    <t>Spikeweed,</t>
+  </si>
+  <si>
+    <t>/// 裂夹豌豆射手</t>
+  </si>
+  <si>
+    <t>SplitPea,</t>
+  </si>
+  <si>
+    <t>/// 杨桃</t>
+  </si>
+  <si>
+    <t>Starfruit,</t>
+  </si>
+  <si>
+    <t>/// 向日葵</t>
+  </si>
+  <si>
+    <t>SunFlower,</t>
+  </si>
+  <si>
+    <t>/// 高坚果</t>
+  </si>
+  <si>
+    <t>TallNut,</t>
+  </si>
+  <si>
+    <t>/// 三发豌豆</t>
+  </si>
+  <si>
+    <t>Threepeater,</t>
+  </si>
+  <si>
+    <t>/// 火炬树桩</t>
+  </si>
+  <si>
+    <t>Torchwood,</t>
+  </si>
+  <si>
+    <t>/// 双子向日葵</t>
+  </si>
+  <si>
+    <t>TwinSunflower,</t>
+  </si>
+  <si>
+    <t>/// 坚果</t>
+  </si>
+  <si>
+    <t>WallNut,</t>
+  </si>
+  <si>
+    <t>/// 寒冰菇</t>
+  </si>
+  <si>
+    <t>IceShroom,</t>
+  </si>
+  <si>
+    <t>/// 火爆辣椒</t>
+  </si>
+  <si>
+    <t>Jalapeno,</t>
+  </si>
+  <si>
+    <t>/// 毁灭菇</t>
+  </si>
+  <si>
+    <t>DoomShroom,</t>
+  </si>
+  <si>
+    <t>/// 窝瓜</t>
+  </si>
+  <si>
+    <t>Squash,</t>
+  </si>
+  <si>
+    <t>/// 土豆雷</t>
+  </si>
+  <si>
+    <t>PotatoMine,</t>
+  </si>
+  <si>
+    <t>CobCannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玉米加农炮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率内总权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每个掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米加农炮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落权重和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落概率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +525,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,10 +558,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -552,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,7 +986,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -755,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -766,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -777,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -788,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -799,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -810,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -832,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -852,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -872,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -892,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -912,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1345,4 +1639,1503 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572C78A8-990D-4BB8-B277-C0ABA7C9FCC9}">
+  <dimension ref="A1:Q162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39.875" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>190000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>275</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>225</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>400</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>225</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>175</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>300</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>250</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>425</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>300</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>250</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>350</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>250</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>450</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>225</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>250</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>400</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>250</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>300</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>300</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <f>SUM(C5:C44)</f>
+        <v>10000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <f>SUM(C4:C44)</f>
+        <v>200000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <f>PRODUCT(1/C46,C45)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H48" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H49" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H50" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H52" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H54" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H56" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H57" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H58" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H60" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H61" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H62" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H64" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H65" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H66" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H68" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H69" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H70" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H72" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H73" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H74" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H76" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H77" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H78" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J79">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H80" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H81" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H82" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H84" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H85" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H86" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H87" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J87">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H88" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H89" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H90" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J91">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H92" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H93" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H94" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J95">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H96" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H97" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H98" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H99" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J99">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H100" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H101" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H102" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J103">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H104" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H105" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H106" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J107">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H108" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H109" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H110" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H111" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J111">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H112" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H113" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H114" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H115" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J115">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H116" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H117" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H118" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H119" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J119">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H120" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H121" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H122" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H123" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H124" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H125" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H126" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H127" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J127">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H128" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H129" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H130" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H131" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J131">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H132" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H133" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H134" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H135" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J135">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H136" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H137" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H138" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H139" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J139">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H140" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H141" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H142" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H143" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J143">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H144" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H145" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H146" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H147" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J147">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H148" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H149" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H150" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H151" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J151">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H152" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H153" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H154" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H155" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J155">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H156" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H157" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H158" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H159" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J159">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H160" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H161" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="162" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H162" t="s">
+        <v>118</v>
+      </c>
+      <c r="I162" t="s">
+        <v>119</v>
+      </c>
+      <c r="J162">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelToCs/配置/掉落配置表.xlsx
+++ b/ExcelToCs/配置/掉落配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F03E6BE-4562-45E3-962E-EEAC66FD1DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8425FB4-DB39-4ABF-98A7-FBD19552B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="129">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -470,6 +470,18 @@
   </si>
   <si>
     <t>掉落概率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -558,11 +570,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -847,7 +860,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1646,7 +1659,7 @@
   <dimension ref="A1:Q162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1665,6 +1678,9 @@
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1672,10 +1688,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1689,6 +1708,9 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1699,7 +1721,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>190000</v>
+        <v>390000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>36</v>
@@ -1715,7 +1740,10 @@
       <c r="C5">
         <v>500</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1735,7 +1763,10 @@
       <c r="C6">
         <v>300</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1752,7 +1783,10 @@
       <c r="C7">
         <v>250</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1772,7 +1806,10 @@
       <c r="C8">
         <v>275</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1789,7 +1826,10 @@
       <c r="C9">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1812,7 +1852,10 @@
       <c r="C10">
         <v>200</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1835,7 +1878,10 @@
       <c r="C11">
         <v>500</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1855,7 +1901,10 @@
       <c r="C12">
         <v>225</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1872,7 +1921,10 @@
       <c r="C13">
         <v>400</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1889,7 +1941,10 @@
       <c r="C14">
         <v>300</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1906,7 +1961,10 @@
       <c r="C15">
         <v>150</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1926,7 +1984,10 @@
       <c r="C16">
         <v>100</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
         <v>62</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1943,7 +2004,10 @@
       <c r="C17">
         <v>175</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>64</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -1960,7 +2024,10 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>66</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1977,7 +2044,10 @@
       <c r="C19">
         <v>225</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>68</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1997,7 +2067,10 @@
       <c r="C20">
         <v>175</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>70</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -2014,7 +2087,10 @@
       <c r="C21">
         <v>125</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>72</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -2031,7 +2107,10 @@
       <c r="C22">
         <v>300</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
         <v>74</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -2048,7 +2127,10 @@
       <c r="C23">
         <v>250</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
         <v>76</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -2068,7 +2150,10 @@
       <c r="C24">
         <v>200</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
         <v>78</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -2085,7 +2170,10 @@
       <c r="C25">
         <v>500</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>80</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -2102,7 +2190,10 @@
       <c r="C26">
         <v>250</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -2119,7 +2210,10 @@
       <c r="C27">
         <v>425</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
         <v>84</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -2139,7 +2233,10 @@
       <c r="C28">
         <v>300</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
         <v>86</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -2156,7 +2253,10 @@
       <c r="C29">
         <v>250</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
         <v>88</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -2173,7 +2273,10 @@
       <c r="C30">
         <v>350</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>90</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -2190,7 +2293,10 @@
       <c r="C31">
         <v>250</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>92</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -2210,7 +2316,10 @@
       <c r="C32">
         <v>125</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
         <v>94</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -2227,7 +2336,10 @@
       <c r="C33">
         <v>450</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>96</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -2244,7 +2356,10 @@
       <c r="C34">
         <v>150</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
         <v>98</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -2261,7 +2376,10 @@
       <c r="C35">
         <v>225</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
         <v>100</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -2281,7 +2399,10 @@
       <c r="C36">
         <v>150</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
         <v>102</v>
       </c>
       <c r="H36" t="s">
@@ -2298,7 +2419,10 @@
       <c r="C37">
         <v>250</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
         <v>104</v>
       </c>
       <c r="H37" t="s">
@@ -2315,7 +2439,10 @@
       <c r="C38">
         <v>400</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>106</v>
       </c>
       <c r="H38" t="s">
@@ -2332,7 +2459,10 @@
       <c r="C39">
         <v>250</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
         <v>108</v>
       </c>
       <c r="H39" t="s">
@@ -2352,7 +2482,10 @@
       <c r="C40">
         <v>125</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
         <v>110</v>
       </c>
       <c r="H40" t="s">
@@ -2369,7 +2502,10 @@
       <c r="C41">
         <v>100</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
         <v>112</v>
       </c>
       <c r="H41" t="s">
@@ -2386,7 +2522,10 @@
       <c r="C42">
         <v>300</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>114</v>
       </c>
       <c r="H42" t="s">
@@ -2403,7 +2542,10 @@
       <c r="C43">
         <v>300</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>116</v>
       </c>
       <c r="H43" t="s">
@@ -2423,7 +2565,10 @@
       <c r="C44">
         <v>100</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
         <v>123</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -2445,7 +2590,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C46">
         <f>SUM(C4:C44)</f>
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="D46" t="s">
         <v>120</v>
@@ -2457,7 +2602,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C47">
         <f>PRODUCT(1/C46,C45)</f>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D47" t="s">
         <v>125</v>

--- a/ExcelToCs/配置/掉落配置表.xlsx
+++ b/ExcelToCs/配置/掉落配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8425FB4-DB39-4ABF-98A7-FBD19552B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886CFBC3-2DEF-41F1-A069-EB65B7C9C882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -570,12 +579,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1659,7 +1667,7 @@
   <dimension ref="A1:Q162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1678,7 +1686,7 @@
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="1"/>
@@ -1693,7 +1701,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E2" s="1"/>
@@ -1708,7 +1716,7 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1"/>
@@ -2442,7 +2450,7 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" t="s">
         <v>106</v>
       </c>
       <c r="H38" t="s">
